--- a/officeAddress.xlsx
+++ b/officeAddress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/code/nec-backend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\190822_NEC_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF727943-CF5E-7846-89E0-22961B9781EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -211,8 +210,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -544,22 +543,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -573,7 +570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -587,7 +584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -601,7 +598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -615,7 +612,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -629,7 +626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -643,7 +640,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -657,7 +654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -671,7 +668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -685,7 +682,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -699,7 +696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -713,7 +710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
